--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhbc-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhbc-Acvr2b.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N2">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q2">
-        <v>0.312546648899</v>
+        <v>0.1250972319953333</v>
       </c>
       <c r="R2">
-        <v>2.812919840091</v>
+        <v>1.125875087958</v>
       </c>
       <c r="S2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="T2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q3">
         <v>0.041429697411</v>
@@ -638,10 +638,10 @@
         <v>0.372867276699</v>
       </c>
       <c r="S3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="T3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N4">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q4">
-        <v>0.09439204339999999</v>
+        <v>0.1142606461546667</v>
       </c>
       <c r="R4">
-        <v>0.8495283906</v>
+        <v>1.028345815392</v>
       </c>
       <c r="S4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="T4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N5">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q5">
-        <v>0.281245777357</v>
+        <v>0.1135463161505</v>
       </c>
       <c r="R5">
-        <v>1.687474664142</v>
+        <v>0.6812778969030001</v>
       </c>
       <c r="S5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="T5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N6">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q6">
-        <v>0.09687448509166667</v>
+        <v>0.1466633250293333</v>
       </c>
       <c r="R6">
-        <v>0.8718703658250001</v>
+        <v>1.319969925264</v>
       </c>
       <c r="S6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="T6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
     </row>
   </sheetData>
